--- a/requirements/NM.xlsx
+++ b/requirements/NM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sfaily/webinos/webinos-design-data/requirements/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27735" yWindow="15" windowWidth="21840" windowHeight="10110" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="10120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="In scope" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -659,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,13 +675,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1012,1140 +1035,1144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="61.375" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="35.875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="27.25" customWidth="1"/>
-    <col min="14" max="14" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5"/>
+    <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5"/>
+    <col min="5" max="5" width="61.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="5" customWidth="1"/>
+    <col min="10" max="12" width="11" style="5"/>
+    <col min="13" max="13" width="27.1640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="I16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="O19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="I21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="I23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:15" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4" t="s">
+      <c r="M24" s="7"/>
+      <c r="N24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="O24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="O24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="I25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="7">
         <v>2</v>
       </c>
     </row>
@@ -2156,33 +2183,28 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.375" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="61.375" customWidth="1"/>
-    <col min="7" max="7" width="35.875" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="61.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -2211,7 +2233,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -2240,7 +2262,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -2269,7 +2291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -2298,7 +2320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -2327,7 +2349,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2356,7 +2378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -2385,7 +2407,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -2417,10 +2439,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>